--- a/配表/法力恢复等级表.xlsx
+++ b/配表/法力恢复等级表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>序号</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>[1002,5]</t>
-  </si>
-  <si>
-    <t>[1002,10]</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1226,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1481,15 +1478,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>20</v>
       </c>
       <c r="B25" s="1">
         <v>20</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
